--- a/Top_Players.xlsx
+++ b/Top_Players.xlsx
@@ -1179,7 +1179,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1283,7 +1283,7 @@
         <v>13241</v>
       </c>
       <c r="G3" s="4">
-        <v>100</v>
+        <v>10000000000</v>
       </c>
       <c r="H3" s="4">
         <v>0</v>
@@ -1344,7 +1344,6 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
@@ -1372,7 +1371,6 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
@@ -1400,7 +1398,6 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="I7"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
@@ -1428,7 +1425,6 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
@@ -1456,7 +1452,6 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
@@ -1484,7 +1479,6 @@
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
@@ -1512,7 +1506,6 @@
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="I11"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -1540,7 +1533,6 @@
       <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="I12"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
@@ -1568,7 +1560,6 @@
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="I13"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -1596,7 +1587,6 @@
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="I14"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -1624,7 +1614,6 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
@@ -1652,7 +1641,6 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
@@ -1680,7 +1668,6 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
@@ -1708,7 +1695,6 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
@@ -1736,7 +1722,6 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
@@ -1764,7 +1749,6 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
@@ -1792,7 +1776,6 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
@@ -1820,7 +1803,6 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
@@ -1848,7 +1830,6 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
@@ -1876,7 +1857,6 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
@@ -1904,7 +1884,6 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
@@ -1932,7 +1911,6 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
@@ -1960,7 +1938,6 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
@@ -1988,7 +1965,6 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="I28"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
@@ -2016,7 +1992,6 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="I29"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
@@ -2044,7 +2019,6 @@
       <c r="H30" s="4">
         <v>0</v>
       </c>
-      <c r="I30"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
@@ -2072,7 +2046,6 @@
       <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="I31"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
@@ -2100,7 +2073,6 @@
       <c r="H32" s="4">
         <v>0</v>
       </c>
-      <c r="I32"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
@@ -2128,7 +2100,6 @@
       <c r="H33" s="4">
         <v>0</v>
       </c>
-      <c r="I33"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
@@ -2156,7 +2127,6 @@
       <c r="H34" s="4">
         <v>0</v>
       </c>
-      <c r="I34"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10">
@@ -2184,7 +2154,6 @@
       <c r="H35" s="4">
         <v>0</v>
       </c>
-      <c r="I35"/>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10">
@@ -2212,7 +2181,6 @@
       <c r="H36" s="4">
         <v>0</v>
       </c>
-      <c r="I36"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10">
@@ -2240,7 +2208,6 @@
       <c r="H37" s="4">
         <v>0</v>
       </c>
-      <c r="I37"/>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10">
@@ -2268,7 +2235,6 @@
       <c r="H38" s="4">
         <v>0</v>
       </c>
-      <c r="I38"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10">
@@ -2296,7 +2262,6 @@
       <c r="H39" s="4">
         <v>0</v>
       </c>
-      <c r="I39"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10">
@@ -2324,7 +2289,6 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-      <c r="I40"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10">
@@ -2352,7 +2316,6 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="I41"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10">
@@ -2380,7 +2343,6 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10">
@@ -2408,7 +2370,6 @@
       <c r="H43" s="1">
         <v>0</v>
       </c>
-      <c r="I43"/>
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10">
@@ -2436,7 +2397,6 @@
       <c r="H44" s="1">
         <v>0</v>
       </c>
-      <c r="I44"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:8">
